--- a/Data Table Spreadsheet.xlsx
+++ b/Data Table Spreadsheet.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="1940" yWindow="600" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="All" sheetId="1" r:id="rId3"/>
+    <sheet name="All" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -14,9 +22,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Resource</t>
-  </si>
-  <si>
-    <t>[ URL of the resource ]</t>
   </si>
   <si>
     <t>Category</t>
@@ -57,51 +62,66 @@
   <si>
     <t>Agency</t>
   </si>
+  <si>
+    <t>url</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-    </font>
-    <font/>
-    <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
   </fonts>
@@ -110,7 +130,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -131,119 +151,408 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA321"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="47.86"/>
-    <col customWidth="1" min="2" max="2" width="48.86"/>
-    <col customWidth="1" min="3" max="3" width="16.14"/>
-    <col customWidth="1" min="4" max="4" width="10.43"/>
-    <col customWidth="1" min="5" max="5" width="65.57"/>
-    <col customWidth="1" min="7" max="7" width="17.14"/>
+    <col min="1" max="1" width="47.83203125" customWidth="1"/>
+    <col min="2" max="2" width="48.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="65.5" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
@@ -268,18 +577,18 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="7"/>
@@ -305,18 +614,18 @@
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="7"/>
@@ -342,431 +651,431 @@
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:27" ht="15.75" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:27" ht="15.75" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:27" ht="15.75" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:27" ht="15.75" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:27" ht="15.75" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:27" ht="15.75" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:27" ht="15.75" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:27" ht="15.75" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:27" ht="15.75" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:27" ht="15.75" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="8"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="8"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="8"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="8"/>
       <c r="E38" s="9"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="8"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="8"/>
       <c r="E40" s="9"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="8"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="8"/>
       <c r="E42" s="9"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="8"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="8"/>
       <c r="E44" s="9"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="8"/>
       <c r="E45" s="9"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="8"/>
       <c r="E46" s="9"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="8"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="8"/>
       <c r="E48" s="9"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="8"/>
       <c r="E49" s="9"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="8"/>
       <c r="E50" s="9"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" ht="15.75" customHeight="1">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="8"/>
       <c r="E51" s="9"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="8"/>
       <c r="E52" s="9"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="8"/>
       <c r="E53" s="9"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="8"/>
       <c r="E54" s="9"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="8"/>
       <c r="E55" s="9"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="8"/>
       <c r="E56" s="9"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7" ht="15.75" customHeight="1">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="8"/>
       <c r="E57" s="9"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:7" ht="15.75" customHeight="1">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7" ht="15.75" customHeight="1">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7" ht="15.75" customHeight="1">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="G60" s="8"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7" ht="15.75" customHeight="1">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="G61" s="8"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:7" ht="15.75" customHeight="1">
       <c r="A62" s="8"/>
       <c r="B62" s="11"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="G62" s="11"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:7" ht="15.75" customHeight="1">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="G63" s="8"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:7" ht="15.75" customHeight="1">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -774,67 +1083,67 @@
       <c r="E64" s="9"/>
       <c r="G64" s="8"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:27" ht="15.75" customHeight="1">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="G65" s="8"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:27" ht="15.75" customHeight="1">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="G66" s="8"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:27" ht="15.75" customHeight="1">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="E67" s="8"/>
       <c r="G67" s="8"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:27" ht="15.75" customHeight="1">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="G68" s="8"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:27" ht="15.75" customHeight="1">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="G69" s="8"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:27" ht="15.75" customHeight="1">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="G70" s="8"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:27" ht="15.75" customHeight="1">
       <c r="A71" s="8"/>
       <c r="B71" s="12"/>
       <c r="C71" s="8"/>
       <c r="D71" s="13"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:27" ht="15.75" customHeight="1">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="13"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:27" ht="15.75" customHeight="1">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="8"/>
       <c r="E73" s="9"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:27" ht="15.75" customHeight="1">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -863,7 +1172,7 @@
       <c r="Z74" s="13"/>
       <c r="AA74" s="13"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:27" ht="15.75" customHeight="1">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -892,7 +1201,7 @@
       <c r="Z75" s="13"/>
       <c r="AA75" s="13"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:27" ht="15.75" customHeight="1">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -921,284 +1230,284 @@
       <c r="Z76" s="13"/>
       <c r="AA76" s="13"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:27" ht="15.75" customHeight="1">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="8"/>
       <c r="D77" s="9"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:27" ht="15.75" customHeight="1">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="8"/>
       <c r="D78" s="9"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:27" ht="15.75" customHeight="1">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="8"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:27" ht="15.75" customHeight="1">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="8"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:7" ht="15.75" customHeight="1">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="8"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:7" ht="15.75" customHeight="1">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="8"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:7" ht="15.75" customHeight="1">
       <c r="A83" s="8"/>
       <c r="B83" s="12"/>
       <c r="C83" s="8"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:7" ht="15.75" customHeight="1">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="8"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:7" ht="15.75" customHeight="1">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="8"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:7" ht="15.75" customHeight="1">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="8"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:7" ht="15.75" customHeight="1">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="8"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:7" ht="15.75" customHeight="1">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="8"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:7" ht="15.75" customHeight="1">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="8"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:7" ht="15.75" customHeight="1">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:7" ht="15.75" customHeight="1">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:7" ht="15.75" customHeight="1">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="8"/>
       <c r="E92" s="9"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:7" ht="15.75" customHeight="1">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="G93" s="8"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:7" ht="15.75" customHeight="1">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="G94" s="8"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:7" ht="15.75" customHeight="1">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:7" ht="15.75" customHeight="1">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="G96" s="8"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:7" ht="15.75" customHeight="1">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="G97" s="8"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:7" ht="15.75" customHeight="1">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="8"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:7" ht="15.75" customHeight="1">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="E99" s="9"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:7" ht="15.75" customHeight="1">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:7" ht="15.75" customHeight="1">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="E101" s="9"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:7" ht="15.75" customHeight="1">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="13"/>
       <c r="E102" s="8"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:7" ht="15.75" customHeight="1">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="D103" s="13"/>
       <c r="E103" s="8"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:7" ht="15.75" customHeight="1">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="D104" s="13"/>
       <c r="E104" s="8"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:7" ht="15.75" customHeight="1">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="13"/>
       <c r="E105" s="8"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:7" ht="15.75" customHeight="1">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="8"/>
       <c r="D106" s="13"/>
       <c r="E106" s="8"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:7" ht="15.75" customHeight="1">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="8"/>
       <c r="D107" s="13"/>
       <c r="E107" s="8"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:7" ht="15.75" customHeight="1">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="8"/>
       <c r="D108" s="13"/>
       <c r="E108" s="8"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:7" ht="15.75" customHeight="1">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="8"/>
       <c r="D109" s="13"/>
       <c r="E109" s="8"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:7" ht="15.75" customHeight="1">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="8"/>
       <c r="D110" s="13"/>
       <c r="E110" s="8"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:7" ht="15.75" customHeight="1">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="E111" s="9"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:7" ht="15.75" customHeight="1">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="E112" s="9"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:7" ht="15.75" customHeight="1">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:7" ht="15.75" customHeight="1">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:7" ht="15.75" customHeight="1">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="G115" s="8"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:7" ht="15.75" customHeight="1">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="13"/>
       <c r="E116" s="8"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:7" ht="15.75" customHeight="1">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="13"/>
       <c r="E117" s="8"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:7" ht="15.75" customHeight="1">
       <c r="A118" s="8"/>
       <c r="B118" s="14"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
       <c r="G118" s="14"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:7" ht="15.75" customHeight="1">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
       <c r="G119" s="8"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:7" ht="15.75" customHeight="1">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:7" ht="15.75" customHeight="1">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -1206,122 +1515,122 @@
       <c r="E121" s="9"/>
       <c r="G121" s="9"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:7" ht="15.75" customHeight="1">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="E122" s="9"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:7" ht="15.75" customHeight="1">
       <c r="A123" s="8"/>
       <c r="B123" s="12"/>
       <c r="C123" s="8"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:7" ht="15.75" customHeight="1">
       <c r="A124" s="8"/>
       <c r="B124" s="12"/>
       <c r="C124" s="8"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:7" ht="15.75" customHeight="1">
       <c r="A125" s="8"/>
       <c r="B125" s="12"/>
       <c r="C125" s="8"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:7" ht="15.75" customHeight="1">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:7" ht="15.75" customHeight="1">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:7" ht="15.75" customHeight="1">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:27" ht="15.75" customHeight="1">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="13"/>
       <c r="E129" s="13"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:27" ht="15.75" customHeight="1">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="13"/>
       <c r="E130" s="13"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:27" ht="15.75" customHeight="1">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="13"/>
       <c r="E131" s="13"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:27" ht="15.75" customHeight="1">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="13"/>
       <c r="E132" s="13"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:27" ht="15.75" customHeight="1">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="13"/>
       <c r="E133" s="13"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:27" ht="15.75" customHeight="1">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="13"/>
       <c r="E134" s="13"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:27" ht="15.75" customHeight="1">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="13"/>
       <c r="E135" s="13"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:27" ht="15.75" customHeight="1">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
       <c r="D136" s="13"/>
       <c r="E136" s="13"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:27" ht="15.75" customHeight="1">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="13"/>
       <c r="E137" s="13"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:27" ht="15.75" customHeight="1">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="13"/>
       <c r="E138" s="13"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:27" ht="15.75" customHeight="1">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="13"/>
       <c r="E139" s="8"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:27" ht="15.75" customHeight="1">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -1350,7 +1659,7 @@
       <c r="Z140" s="13"/>
       <c r="AA140" s="13"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:27" ht="15.75" customHeight="1">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -1379,14 +1688,14 @@
       <c r="Z141" s="13"/>
       <c r="AA141" s="13"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:27" ht="15.75" customHeight="1">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="8"/>
       <c r="E142" s="9"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:27" ht="15.75" customHeight="1">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -1415,21 +1724,21 @@
       <c r="Z143" s="13"/>
       <c r="AA143" s="13"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:27" ht="15.75" customHeight="1">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="8"/>
       <c r="E144" s="9"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:27" ht="15.75" customHeight="1">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="8"/>
       <c r="E145" s="9"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:27" ht="15.75" customHeight="1">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -1458,14 +1767,14 @@
       <c r="Z146" s="13"/>
       <c r="AA146" s="13"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:27" ht="15.75" customHeight="1">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="8"/>
       <c r="E147" s="9"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:27" ht="15.75" customHeight="1">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -1494,35 +1803,35 @@
       <c r="Z148" s="13"/>
       <c r="AA148" s="13"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:27" ht="15.75" customHeight="1">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="8"/>
       <c r="E149" s="9"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:27" ht="15.75" customHeight="1">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="8"/>
       <c r="E150" s="9"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:27" ht="15.75" customHeight="1">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="8"/>
       <c r="E151" s="9"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:27" ht="15.75" customHeight="1">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="8"/>
       <c r="E152" s="9"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:27" ht="15.75" customHeight="1">
       <c r="A153" s="8"/>
       <c r="B153" s="12"/>
       <c r="C153" s="8"/>
@@ -1551,7 +1860,7 @@
       <c r="Z153" s="13"/>
       <c r="AA153" s="13"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:27" ht="15.75" customHeight="1">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -1580,7 +1889,7 @@
       <c r="Z154" s="13"/>
       <c r="AA154" s="13"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:27" ht="15.75" customHeight="1">
       <c r="A155" s="8"/>
       <c r="B155" s="15"/>
       <c r="C155" s="8"/>
@@ -1609,7 +1918,7 @@
       <c r="Z155" s="13"/>
       <c r="AA155" s="13"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:27" ht="15.75" customHeight="1">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -1638,7 +1947,7 @@
       <c r="Z156" s="13"/>
       <c r="AA156" s="13"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:27" ht="15.75" customHeight="1">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -1667,7 +1976,7 @@
       <c r="Z157" s="13"/>
       <c r="AA157" s="13"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:27" ht="15.75" customHeight="1">
       <c r="A158" s="8"/>
       <c r="B158" s="15"/>
       <c r="C158" s="8"/>
@@ -1696,7 +2005,7 @@
       <c r="Z158" s="13"/>
       <c r="AA158" s="13"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:27" ht="15.75" customHeight="1">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -1704,7 +2013,7 @@
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:27" ht="15.75" customHeight="1">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -1712,7 +2021,7 @@
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:27" ht="15.75" customHeight="1">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -1720,7 +2029,7 @@
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:27" ht="15.75" customHeight="1">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -1728,7 +2037,7 @@
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:27" ht="15.75" customHeight="1">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -1757,42 +2066,42 @@
       <c r="Z163" s="13"/>
       <c r="AA163" s="13"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:27" ht="15.75" customHeight="1">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:27" ht="15.75" customHeight="1">
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:27" ht="15.75" customHeight="1">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:27" ht="15.75" customHeight="1">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
       <c r="D167" s="8"/>
       <c r="E167" s="9"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:27" ht="15.75" customHeight="1">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
       <c r="G168" s="8"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:27" ht="15.75" customHeight="1">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -1800,174 +2109,174 @@
       <c r="E169" s="9"/>
       <c r="G169" s="8"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:27" ht="15.75" customHeight="1">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
       <c r="E170" s="9"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:27" ht="15.75" customHeight="1">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
       <c r="E171" s="9"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:27" ht="15.75" customHeight="1">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
       <c r="E172" s="9"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:27" ht="15.75" customHeight="1">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="E173" s="9"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:27" ht="15.75" customHeight="1">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
       <c r="E174" s="9"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:27" ht="15.75" customHeight="1">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
       <c r="E175" s="9"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:27" ht="15.75" customHeight="1">
       <c r="A176" s="8"/>
       <c r="B176" s="12"/>
       <c r="C176" s="8"/>
       <c r="D176" s="13"/>
       <c r="E176" s="8"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:7" ht="15.75" customHeight="1">
       <c r="A177" s="14"/>
       <c r="B177" s="12"/>
       <c r="C177" s="8"/>
       <c r="D177" s="13"/>
       <c r="E177" s="8"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:7" ht="15.75" customHeight="1">
       <c r="A178" s="8"/>
       <c r="B178" s="12"/>
       <c r="C178" s="8"/>
       <c r="D178" s="13"/>
       <c r="E178" s="8"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:7" ht="15.75" customHeight="1">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="13"/>
       <c r="E179" s="8"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:7" ht="15.75" customHeight="1">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:7" ht="15.75" customHeight="1">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:7" ht="15.75" customHeight="1">
       <c r="A182" s="9"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
       <c r="D182" s="8"/>
       <c r="E182" s="9"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:7" ht="15.75" customHeight="1">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
       <c r="D183" s="8"/>
       <c r="E183" s="9"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:7" ht="15.75" customHeight="1">
       <c r="A184" s="8"/>
       <c r="B184" s="12"/>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:7" ht="15.75" customHeight="1">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
       <c r="D185" s="13"/>
       <c r="E185" s="8"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:7" ht="15.75" customHeight="1">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="13"/>
       <c r="E186" s="8"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:7" ht="15.75" customHeight="1">
       <c r="A187" s="9"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
       <c r="E187" s="9"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:7" ht="15.75" customHeight="1">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:7" ht="15.75" customHeight="1">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
       <c r="G189" s="8"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:7" ht="15.75" customHeight="1">
       <c r="A190" s="8"/>
       <c r="B190" s="16"/>
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
       <c r="G190" s="16"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:7" ht="15.75" customHeight="1">
       <c r="A191" s="8"/>
       <c r="B191" s="12"/>
       <c r="C191" s="8"/>
       <c r="D191" s="8"/>
       <c r="G191" s="12"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:7" ht="15.75" customHeight="1">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
       <c r="G192" s="8"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:27" ht="15.75" customHeight="1">
       <c r="A193" s="9"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
       <c r="E193" s="9"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:27" ht="15.75" customHeight="1">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
       <c r="G194" s="8"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:27" ht="15.75" customHeight="1">
       <c r="A195" s="8"/>
       <c r="B195" s="12"/>
       <c r="C195" s="8"/>
@@ -1996,7 +2305,7 @@
       <c r="Z195" s="13"/>
       <c r="AA195" s="13"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:27" ht="15.75" customHeight="1">
       <c r="A196" s="8"/>
       <c r="B196" s="12"/>
       <c r="C196" s="8"/>
@@ -2025,7 +2334,7 @@
       <c r="Z196" s="13"/>
       <c r="AA196" s="13"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:27" ht="15.75" customHeight="1">
       <c r="A197" s="9"/>
       <c r="B197" s="9"/>
       <c r="C197" s="8"/>
@@ -2033,42 +2342,42 @@
       <c r="E197" s="9"/>
       <c r="G197" s="9"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:27" ht="15.75" customHeight="1">
       <c r="A198" s="9"/>
       <c r="B198" s="9"/>
       <c r="C198" s="8"/>
       <c r="D198" s="9"/>
       <c r="G198" s="9"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:27" ht="15.75" customHeight="1">
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
       <c r="C199" s="8"/>
       <c r="D199" s="9"/>
       <c r="G199" s="9"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:27" ht="15.75" customHeight="1">
       <c r="A200" s="9"/>
       <c r="B200" s="9"/>
       <c r="C200" s="8"/>
       <c r="D200" s="9"/>
       <c r="G200" s="9"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:27" ht="15.75" customHeight="1">
       <c r="A201" s="9"/>
       <c r="B201" s="9"/>
       <c r="C201" s="8"/>
       <c r="D201" s="9"/>
       <c r="G201" s="9"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:27" ht="15.75" customHeight="1">
       <c r="A202" s="9"/>
       <c r="B202" s="9"/>
       <c r="C202" s="8"/>
       <c r="D202" s="9"/>
       <c r="G202" s="9"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:27" ht="15.75" customHeight="1">
       <c r="A203" s="9"/>
       <c r="B203" s="9"/>
       <c r="C203" s="8"/>
@@ -2076,13 +2385,13 @@
       <c r="E203" s="9"/>
       <c r="G203" s="9"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:27" ht="15.75" customHeight="1">
       <c r="A204" s="9"/>
       <c r="B204" s="9"/>
       <c r="C204" s="8"/>
       <c r="E204" s="9"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:27" ht="15.75" customHeight="1">
       <c r="A205" s="9"/>
       <c r="B205" s="9"/>
       <c r="C205" s="8"/>
@@ -2090,7 +2399,7 @@
       <c r="E205" s="9"/>
       <c r="G205" s="9"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:27" ht="15.75" customHeight="1">
       <c r="A206" s="9"/>
       <c r="B206" s="9"/>
       <c r="C206" s="8"/>
@@ -2098,33 +2407,33 @@
       <c r="E206" s="9"/>
       <c r="G206" s="9"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:27" ht="15.75" customHeight="1">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="8"/>
       <c r="D207" s="9"/>
       <c r="G207" s="9"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:27" ht="15.75" customHeight="1">
       <c r="A208" s="9"/>
       <c r="B208" s="9"/>
       <c r="C208" s="8"/>
       <c r="E208" s="9"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:27" ht="15.75" customHeight="1">
       <c r="A209" s="9"/>
       <c r="B209" s="9"/>
       <c r="C209" s="8"/>
       <c r="D209" s="8"/>
       <c r="E209" s="9"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:27" ht="15.75" customHeight="1">
       <c r="A210" s="8"/>
       <c r="B210" s="12"/>
       <c r="C210" s="8"/>
       <c r="D210" s="13"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:27" ht="15.75" customHeight="1">
       <c r="A211" s="8"/>
       <c r="B211" s="12"/>
       <c r="C211" s="8"/>
@@ -2153,7 +2462,7 @@
       <c r="Z211" s="13"/>
       <c r="AA211" s="13"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:27" ht="15.75" customHeight="1">
       <c r="A212" s="8"/>
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
@@ -2182,316 +2491,316 @@
       <c r="Z212" s="13"/>
       <c r="AA212" s="13"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:27" ht="15.75" customHeight="1">
       <c r="A213" s="9"/>
       <c r="B213" s="9"/>
       <c r="C213" s="8"/>
       <c r="D213" s="9"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:27" ht="15.75" customHeight="1">
       <c r="A214" s="9"/>
       <c r="B214" s="9"/>
       <c r="C214" s="8"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:27" ht="15.75" customHeight="1">
       <c r="A215" s="8"/>
       <c r="B215" s="12"/>
       <c r="C215" s="8"/>
       <c r="D215" s="13"/>
       <c r="E215" s="13"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:27" ht="15.75" customHeight="1">
       <c r="A216" s="8"/>
       <c r="B216" s="12"/>
       <c r="C216" s="8"/>
       <c r="D216" s="13"/>
       <c r="E216" s="13"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:27" ht="15.75" customHeight="1">
       <c r="A217" s="8"/>
       <c r="B217" s="12"/>
       <c r="C217" s="8"/>
       <c r="D217" s="13"/>
       <c r="E217" s="13"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:27" ht="15.75" customHeight="1">
       <c r="A218" s="8"/>
       <c r="B218" s="12"/>
       <c r="C218" s="8"/>
       <c r="D218" s="13"/>
       <c r="E218" s="13"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:27" ht="15.75" customHeight="1">
       <c r="A219" s="8"/>
       <c r="B219" s="12"/>
       <c r="C219" s="8"/>
       <c r="D219" s="13"/>
       <c r="E219" s="13"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:27" ht="15.75" customHeight="1">
       <c r="A220" s="9"/>
       <c r="B220" s="9"/>
       <c r="C220" s="8"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:27" ht="15.75" customHeight="1">
       <c r="A221" s="8"/>
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
       <c r="D221" s="13"/>
       <c r="E221" s="13"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:27" ht="15.75" customHeight="1">
       <c r="A222" s="14"/>
       <c r="B222" s="11"/>
       <c r="C222" s="8"/>
       <c r="D222" s="13"/>
       <c r="E222" s="13"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:27" ht="15.75" customHeight="1">
       <c r="A223" s="14"/>
       <c r="B223" s="11"/>
       <c r="C223" s="8"/>
       <c r="D223" s="13"/>
       <c r="E223" s="13"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:27" ht="15.75" customHeight="1">
       <c r="A224" s="8"/>
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
       <c r="D224" s="13"/>
       <c r="E224" s="13"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:7" ht="15.75" customHeight="1">
       <c r="A225" s="8"/>
       <c r="B225" s="12"/>
       <c r="C225" s="8"/>
       <c r="D225" s="13"/>
       <c r="E225" s="13"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:7" ht="15.75" customHeight="1">
       <c r="A226" s="8"/>
       <c r="B226" s="12"/>
       <c r="C226" s="8"/>
       <c r="D226" s="13"/>
       <c r="E226" s="13"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:7" ht="15.75" customHeight="1">
       <c r="A227" s="9"/>
       <c r="B227" s="9"/>
       <c r="C227" s="8"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:7" ht="15.75" customHeight="1">
       <c r="A228" s="9"/>
       <c r="B228" s="9"/>
       <c r="C228" s="8"/>
       <c r="E228" s="9"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:7" ht="15.75" customHeight="1">
       <c r="A229" s="9"/>
       <c r="B229" s="9"/>
       <c r="C229" s="8"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:7" ht="15.75" customHeight="1">
       <c r="A230" s="9"/>
       <c r="B230" s="9"/>
       <c r="C230" s="8"/>
       <c r="E230" s="9"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:7" ht="15.75" customHeight="1">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="8"/>
       <c r="E231" s="9"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:7" ht="15.75" customHeight="1">
       <c r="A232" s="8"/>
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
       <c r="D232" s="13"/>
       <c r="E232" s="13"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:7" ht="15.75" customHeight="1">
       <c r="A233" s="9"/>
       <c r="B233" s="9"/>
       <c r="C233" s="8"/>
       <c r="D233" s="9"/>
       <c r="G233" s="9"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:7" ht="15.75" customHeight="1">
       <c r="A234" s="9"/>
       <c r="B234" s="9"/>
       <c r="C234" s="8"/>
       <c r="D234" s="9"/>
       <c r="G234" s="9"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:7" ht="15.75" customHeight="1">
       <c r="A235" s="9"/>
       <c r="B235" s="17"/>
       <c r="C235" s="8"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:7" ht="15.75" customHeight="1">
       <c r="A236" s="9"/>
       <c r="B236" s="9"/>
       <c r="C236" s="8"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:7" ht="15.75" customHeight="1">
       <c r="A237" s="9"/>
       <c r="B237" s="9"/>
       <c r="C237" s="8"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:7" ht="15.75" customHeight="1">
       <c r="A238" s="9"/>
       <c r="B238" s="9"/>
       <c r="C238" s="8"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:7" ht="15.75" customHeight="1">
       <c r="A239" s="9"/>
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
       <c r="E239" s="18"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:7" ht="15.75" customHeight="1">
       <c r="A240" s="8"/>
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
       <c r="D240" s="8"/>
       <c r="G240" s="8"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:7" ht="15.75" customHeight="1">
       <c r="A241" s="8"/>
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
       <c r="D241" s="8"/>
       <c r="G241" s="8"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:7" ht="15.75" customHeight="1">
       <c r="A242" s="8"/>
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
       <c r="D242" s="8"/>
       <c r="G242" s="8"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:7" ht="15.75" customHeight="1">
       <c r="A243" s="8"/>
       <c r="B243" s="8"/>
       <c r="C243" s="8"/>
       <c r="D243" s="8"/>
       <c r="G243" s="8"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:7" ht="15.75" customHeight="1">
       <c r="A244" s="9"/>
       <c r="B244" s="9"/>
       <c r="C244" s="8"/>
       <c r="D244" s="9"/>
       <c r="G244" s="9"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:7" ht="15.75" customHeight="1">
       <c r="A245" s="9"/>
       <c r="B245" s="9"/>
       <c r="C245" s="8"/>
       <c r="D245" s="9"/>
       <c r="G245" s="9"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:7" ht="15.75" customHeight="1">
       <c r="A246" s="9"/>
       <c r="B246" s="19"/>
       <c r="C246" s="8"/>
       <c r="D246" s="9"/>
       <c r="G246" s="19"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:7">
       <c r="A247" s="9"/>
       <c r="B247" s="20"/>
       <c r="C247" s="8"/>
       <c r="D247" s="9"/>
       <c r="G247" s="20"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:7" ht="15.75" customHeight="1">
       <c r="A248" s="9"/>
       <c r="B248" s="9"/>
       <c r="C248" s="8"/>
       <c r="D248" s="9"/>
       <c r="G248" s="9"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:7" ht="15.75" customHeight="1">
       <c r="A249" s="9"/>
       <c r="B249" s="9"/>
       <c r="C249" s="8"/>
       <c r="D249" s="9"/>
       <c r="G249" s="9"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:7" ht="15.75" customHeight="1">
       <c r="A250" s="9"/>
       <c r="B250" s="9"/>
       <c r="C250" s="8"/>
       <c r="D250" s="9"/>
       <c r="G250" s="9"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:7" ht="15.75" customHeight="1">
       <c r="A251" s="9"/>
       <c r="B251" s="9"/>
       <c r="C251" s="8"/>
       <c r="D251" s="9"/>
       <c r="G251" s="9"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:7" ht="15.75" customHeight="1">
       <c r="A252" s="9"/>
       <c r="B252" s="9"/>
       <c r="C252" s="8"/>
       <c r="D252" s="9"/>
       <c r="G252" s="9"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:7" ht="15.75" customHeight="1">
       <c r="A253" s="9"/>
       <c r="B253" s="9"/>
       <c r="C253" s="8"/>
       <c r="E253" s="9"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:7" ht="15.75" customHeight="1">
       <c r="A254" s="9"/>
       <c r="B254" s="9"/>
       <c r="C254" s="8"/>
       <c r="E254" s="9"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:7" ht="15.75" customHeight="1">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="8"/>
       <c r="E255" s="9"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:7" ht="15.75" customHeight="1">
       <c r="A256" s="8"/>
       <c r="B256" s="8"/>
       <c r="C256" s="8"/>
       <c r="D256" s="13"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:27" ht="15.75" customHeight="1">
       <c r="A257" s="8"/>
       <c r="B257" s="8"/>
       <c r="C257" s="8"/>
       <c r="D257" s="13"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:27" ht="15.75" customHeight="1">
       <c r="A258" s="8"/>
       <c r="B258" s="8"/>
       <c r="C258" s="8"/>
       <c r="D258" s="13"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:27" ht="15.75" customHeight="1">
       <c r="A259" s="8"/>
       <c r="B259" s="8"/>
       <c r="C259" s="8"/>
       <c r="D259" s="13"/>
       <c r="E259" s="9"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:27" ht="15.75" customHeight="1">
       <c r="A260" s="8"/>
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
       <c r="D260" s="13"/>
       <c r="E260" s="9"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:27" ht="15.75" customHeight="1">
       <c r="A261" s="8"/>
       <c r="B261" s="8"/>
       <c r="C261" s="8"/>
@@ -2499,13 +2808,13 @@
       <c r="E261" s="9"/>
       <c r="G261" s="13"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:27" ht="15.75" customHeight="1">
       <c r="A262" s="8"/>
       <c r="B262" s="8"/>
       <c r="C262" s="8"/>
       <c r="D262" s="13"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:27" ht="15.75" customHeight="1">
       <c r="A263" s="8"/>
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
@@ -2534,165 +2843,165 @@
       <c r="Z263" s="13"/>
       <c r="AA263" s="13"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:27" ht="15.75" customHeight="1">
       <c r="A264" s="9"/>
       <c r="B264" s="9"/>
       <c r="C264" s="8"/>
       <c r="D264" s="9"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:27" ht="15.75" customHeight="1">
       <c r="A265" s="9"/>
       <c r="B265" s="9"/>
       <c r="C265" s="8"/>
       <c r="E265" s="9"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:27" ht="15.75" customHeight="1">
       <c r="A266" s="8"/>
       <c r="B266" s="12"/>
       <c r="C266" s="8"/>
       <c r="D266" s="13"/>
       <c r="E266" s="8"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:27" ht="15.75" customHeight="1">
       <c r="A267" s="8"/>
       <c r="B267" s="21"/>
       <c r="C267" s="8"/>
       <c r="D267" s="13"/>
       <c r="E267" s="13"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:27" ht="15.75" customHeight="1">
       <c r="A268" s="8"/>
       <c r="B268" s="8"/>
       <c r="C268" s="8"/>
       <c r="D268" s="13"/>
       <c r="E268" s="13"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:27" ht="15.75" customHeight="1">
       <c r="A269" s="8"/>
       <c r="B269" s="12"/>
       <c r="C269" s="8"/>
       <c r="D269" s="13"/>
       <c r="E269" s="13"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:27" ht="15.75" customHeight="1">
       <c r="A270" s="8"/>
       <c r="B270" s="8"/>
       <c r="C270" s="8"/>
       <c r="D270" s="13"/>
       <c r="E270" s="13"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:27" ht="15.75" customHeight="1">
       <c r="A271" s="9"/>
       <c r="B271" s="9"/>
       <c r="C271" s="8"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:27" ht="15.75" customHeight="1">
       <c r="A272" s="9"/>
       <c r="B272" s="9"/>
       <c r="C272" s="8"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:7" ht="15.75" customHeight="1">
       <c r="A273" s="9"/>
       <c r="B273" s="9"/>
       <c r="C273" s="8"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:7">
       <c r="A274" s="9"/>
       <c r="B274" s="20"/>
       <c r="C274" s="8"/>
       <c r="D274" s="8"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:7">
       <c r="A275" s="9"/>
       <c r="B275" s="20"/>
       <c r="C275" s="8"/>
       <c r="D275" s="8"/>
       <c r="E275" s="9"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:7" ht="15.75" customHeight="1">
       <c r="A276" s="9"/>
       <c r="B276" s="9"/>
       <c r="C276" s="8"/>
       <c r="E276" s="9"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:7" ht="15.75" customHeight="1">
       <c r="A277" s="9"/>
       <c r="B277" s="9"/>
       <c r="C277" s="8"/>
       <c r="E277" s="9"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:7" ht="15.75" customHeight="1">
       <c r="A278" s="9"/>
       <c r="B278" s="9"/>
       <c r="C278" s="8"/>
       <c r="D278" s="8"/>
       <c r="E278" s="9"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:7" ht="15.75" customHeight="1">
       <c r="A279" s="9"/>
       <c r="B279" s="9"/>
       <c r="C279" s="8"/>
       <c r="E279" s="9"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:7" ht="15.75" customHeight="1">
       <c r="A280" s="8"/>
       <c r="B280" s="8"/>
       <c r="C280" s="8"/>
       <c r="D280" s="8"/>
       <c r="G280" s="8"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:7" ht="15.75" customHeight="1">
       <c r="A281" s="8"/>
       <c r="B281" s="8"/>
       <c r="C281" s="8"/>
       <c r="D281" s="8"/>
       <c r="G281" s="8"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:7" ht="15.75" customHeight="1">
       <c r="A282" s="8"/>
       <c r="B282" s="8"/>
       <c r="C282" s="8"/>
       <c r="D282" s="8"/>
       <c r="G282" s="8"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:7" ht="15.75" customHeight="1">
       <c r="A283" s="9"/>
       <c r="B283" s="9"/>
       <c r="C283" s="9"/>
       <c r="D283" s="9"/>
       <c r="G283" s="9"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:7" ht="15.75" customHeight="1">
       <c r="A284" s="9"/>
       <c r="B284" s="9"/>
       <c r="C284" s="9"/>
       <c r="E284" s="9"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:7" ht="15.75" customHeight="1">
       <c r="A285" s="9"/>
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
       <c r="E285" s="9"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:7" ht="15.75" customHeight="1">
       <c r="A286" s="9"/>
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
       <c r="E286" s="9"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:27" ht="15.75" customHeight="1">
       <c r="D290" s="9"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:27" ht="15.75" customHeight="1">
       <c r="B294" s="9"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:27" ht="15.75" customHeight="1">
       <c r="A298" s="9"/>
       <c r="B298" s="9"/>
       <c r="C298" s="9"/>
       <c r="E298" s="9"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:27" ht="15.75" customHeight="1">
       <c r="A300" s="13"/>
       <c r="B300" s="13"/>
       <c r="C300" s="13"/>
@@ -2721,53 +3030,53 @@
       <c r="Z300" s="13"/>
       <c r="AA300" s="13"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:5" ht="15.75" customHeight="1">
       <c r="A306" s="9"/>
       <c r="B306" s="9"/>
       <c r="C306" s="9"/>
       <c r="D306" s="9"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:5" ht="15.75" customHeight="1">
       <c r="A309" s="8"/>
       <c r="B309" s="12"/>
       <c r="C309" s="8"/>
       <c r="D309" s="13"/>
       <c r="E309" s="13"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:5" ht="15.75" customHeight="1">
       <c r="A310" s="8"/>
       <c r="B310" s="8"/>
       <c r="C310" s="8"/>
       <c r="D310" s="13"/>
       <c r="E310" s="13"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:5" ht="15.75" customHeight="1">
       <c r="A311" s="8"/>
       <c r="B311" s="8"/>
       <c r="C311" s="8"/>
       <c r="D311" s="13"/>
       <c r="E311" s="13"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:5" ht="15.75" customHeight="1">
       <c r="A313" s="9"/>
       <c r="B313" s="9"/>
       <c r="C313" s="9"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:5" ht="15.75" customHeight="1">
       <c r="A317" s="8"/>
       <c r="B317" s="12"/>
       <c r="C317" s="8"/>
       <c r="D317" s="13"/>
       <c r="E317" s="13"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:5" ht="15.75" customHeight="1">
       <c r="A320" s="13"/>
       <c r="B320" s="13"/>
       <c r="C320" s="13"/>
       <c r="D320" s="13"/>
       <c r="E320" s="13"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:5" ht="15.75" customHeight="1">
       <c r="A321" s="13"/>
       <c r="B321" s="13"/>
       <c r="C321" s="13"/>
@@ -2776,10 +3085,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>